--- a/data/trans_orig/P14A24_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A24_2015-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E29B9216-BB42-46C3-B2DA-DC717BE779F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7644B98-1514-41BD-BABF-31E306377AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{082CFF9D-2573-404D-81B1-BD5614CF90D1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{704DC9E6-3BB7-48CC-AAEA-098B4A4F9262}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>87,83%</t>
   </si>
   <si>
-    <t>63,84%</t>
+    <t>63,54%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>95,06%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
   </si>
   <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>36,16%</t>
+    <t>36,46%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>82,24%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>86,19%</t>
   </si>
   <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>85,21%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +194,103 @@
     <t>78,31%</t>
   </si>
   <si>
-    <t>32,47%</t>
+    <t>27,74%</t>
   </si>
   <si>
     <t>55,78%</t>
   </si>
   <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
   </si>
   <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>67,53%</t>
+    <t>72,26%</t>
   </si>
   <si>
     <t>44,22%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>89,09%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713AF0A3-39D8-4CD0-881A-33E77CA5CE6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BA6BED-9066-420F-915B-9A073EA4081F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14A24_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A24_2015-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7644B98-1514-41BD-BABF-31E306377AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896BE5DD-4D0C-4152-BF74-036A1DB01F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{704DC9E6-3BB7-48CC-AAEA-098B4A4F9262}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7E9DB19D-81DF-4884-BCAD-DEB6CD8BC630}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
-    <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2015 (Tasa respuesta: 4,2%)</t>
+    <t>Población que recibe medicación o terapia por trastornos de ansiedad en 2016 (Tasa respuesta: 4,2%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>87,83%</t>
   </si>
   <si>
-    <t>63,54%</t>
+    <t>64,12%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -83,19 +83,19 @@
     <t>95,06%</t>
   </si>
   <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>36,46%</t>
+    <t>35,88%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,160 +137,160 @@
     <t>82,24%</t>
   </si>
   <si>
-    <t>66,98%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
+    <t>15,42%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BA6BED-9066-420F-915B-9A073EA4081F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4EB2A5C-80BD-4137-A7A8-9AAB41942596}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
